--- a/medicine/Data/TCMSP对接IP.xlsx
+++ b/medicine/Data/TCMSP对接IP.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -899,12 +900,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -921,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,7 +1362,7 @@
   <dimension ref="I1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1396,7 @@
       </c>
     </row>
     <row r="4" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1394,7 +1404,7 @@
       </c>
     </row>
     <row r="5" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1402,7 +1412,7 @@
       </c>
     </row>
     <row r="6" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1410,7 +1420,7 @@
       </c>
     </row>
     <row r="7" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1418,7 +1428,7 @@
       </c>
     </row>
     <row r="8" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1426,7 +1436,7 @@
       </c>
     </row>
     <row r="9" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1434,7 +1444,7 @@
       </c>
     </row>
     <row r="10" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1442,7 +1452,7 @@
       </c>
     </row>
     <row r="11" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1450,7 +1460,7 @@
       </c>
     </row>
     <row r="12" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1458,7 +1468,7 @@
       </c>
     </row>
     <row r="13" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1466,7 +1476,7 @@
       </c>
     </row>
     <row r="14" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1474,7 +1484,7 @@
       </c>
     </row>
     <row r="15" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1482,7 +1492,7 @@
       </c>
     </row>
     <row r="16" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1490,7 +1500,7 @@
       </c>
     </row>
     <row r="17" spans="9:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="2" t="s">
